--- a/Reports/FIO/Certificate/Certificate.xlsx
+++ b/Reports/FIO/Certificate/Certificate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>t1</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>"Дана ".$this-&gt;H['FIO']." ".$this-&gt;H['birthday']." г.р."</t>
+  </si>
+  <si>
+    <t>$this-&gt;H['name_organization_full'] . chr(10) . $this-&gt;H['address'] .chr(10).chr(10) . "от '____' _________".$this-&gt;H['year']." г.".chr(10) . "№ __________"</t>
   </si>
 </sst>
 </file>
@@ -154,13 +157,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,10 +173,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -477,14 +479,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="52.140625" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
@@ -497,13 +502,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="7" t="s">
+      <c r="A1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
@@ -514,177 +521,203 @@
         <v>4</v>
       </c>
       <c r="I1" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="11" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="10"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="9" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="11"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="G7" s="4"/>
-      <c r="K7" s="2" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="K9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="6"/>
-      <c r="B8" s="10" t="s">
+    <row r="10" spans="1:16">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="G8" s="3" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="G10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="N8" s="3" t="s">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="G9" s="2" t="s">
+    <row r="11" spans="1:16">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I11" s="2">
         <v>9</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="6" t="s">
+    <row r="12" spans="1:16">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="18" spans="11:13">
-      <c r="K18" s="2" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="20" spans="11:13">
+      <c r="K20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M20" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A1:C8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.39370078740157483" bottom="0.78740157480314965" header="0" footer="0"/>

--- a/Reports/FIO/Certificate/Certificate.xlsx
+++ b/Reports/FIO/Certificate/Certificate.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -69,13 +69,13 @@
     <t>$this-&gt;H['status_street']." ".$this-&gt;H['name_street']." ".$this-&gt;H['house']." ".$this-&gt;H['room']</t>
   </si>
   <si>
-    <t>$t1['FIO']." ".$t1['birthday']. " г.р."</t>
-  </si>
-  <si>
     <t>"Дана ".$this-&gt;H['FIO']." ".$this-&gt;H['birthday']." г.р."</t>
   </si>
   <si>
     <t>$this-&gt;H['name_organization_full'] . chr(10) . $this-&gt;H['address'] .chr(10).chr(10) . "от '____' _________".$this-&gt;H['year']." г.".chr(10) . "№ __________"</t>
+  </si>
+  <si>
+    <t>$t1['FIO']." ".$t1['birthday']. " г.р. ".$t1['TmpREG']</t>
   </si>
 </sst>
 </file>
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -165,11 +165,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -482,7 +499,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -502,15 +519,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="6" t="s">
+      <c r="A1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
@@ -528,70 +545,70 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="10"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="8" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="13"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="7" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="16"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -609,35 +626,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="G10" s="3" t="s">
+    <row r="10" spans="1:16" s="10" customFormat="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="8">
         <v>1</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="N10" s="3" t="s">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="8">
         <v>0</v>
       </c>
     </row>
